--- a/tools/Excel2Json/sheet/Items.xlsx
+++ b/tools/Excel2Json/sheet/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11510"/>
+    <workbookView windowWidth="25600" windowHeight="12260"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>配置规则</t>
   </si>
@@ -63,7 +63,7 @@
     <t>s.字符串</t>
   </si>
   <si>
-    <t>2:货币</t>
+    <t>5:货币</t>
   </si>
   <si>
     <t>i.整数</t>
@@ -93,6 +93,9 @@
     <t>资源名</t>
   </si>
   <si>
+    <t>产出id</t>
+  </si>
+  <si>
     <t>iId</t>
   </si>
   <si>
@@ -105,100 +108,151 @@
     <t>sResource</t>
   </si>
   <si>
+    <t>aOutputId#number[]</t>
+  </si>
+  <si>
     <t>联盟城堡</t>
   </si>
   <si>
-    <t>build_alliance_castle</t>
+    <t>building/build_alliance_castle_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10001]</t>
   </si>
   <si>
     <t>军营</t>
   </si>
   <si>
-    <t>build_barracks</t>
+    <t>building/build_barracks_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10002]</t>
   </si>
   <si>
     <t>基本炮塔</t>
   </si>
   <si>
-    <t>build_basic_turret</t>
+    <t>building/build_basic_turret_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10003]</t>
   </si>
   <si>
     <t>防御墙</t>
   </si>
   <si>
-    <t>build_defense_wall</t>
+    <t>building/build_defense_wall_lvl1_00_hd</t>
+  </si>
+  <si>
+    <t>[10004]</t>
   </si>
   <si>
     <t>地雷</t>
   </si>
   <si>
-    <t>build_dilei</t>
+    <t>building/build_dilei_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10005]</t>
   </si>
   <si>
     <t>圣水收集器</t>
   </si>
   <si>
-    <t>build_elixir_pump</t>
+    <t>building/build_elixir_pump_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10006]</t>
   </si>
   <si>
     <t>圣水储藏室</t>
   </si>
   <si>
-    <t>build_elixir_storage</t>
+    <t>building/build_elixir_storage_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10007]</t>
   </si>
   <si>
     <t>魔法塔</t>
   </si>
   <si>
-    <t>build_fireplace</t>
+    <t>building/build_fireplace_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10008]</t>
   </si>
   <si>
     <t>火箭塔</t>
   </si>
   <si>
-    <t>build_fireworks_tower</t>
+    <t>building/build_fireworks_tower_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10009]</t>
   </si>
   <si>
     <t>储金罐</t>
   </si>
   <si>
-    <t>build_gold_storage</t>
+    <t>building/build_gold_storage_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10010]</t>
   </si>
   <si>
     <t>金矿</t>
   </si>
   <si>
-    <t>build_goldmine</t>
+    <t>building/build_goldmine_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10011]</t>
   </si>
   <si>
     <t>炼药厂</t>
   </si>
   <si>
-    <t>build_laboratory</t>
+    <t>building/build_laboratory_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10012]</t>
   </si>
   <si>
     <t>符咒工厂</t>
   </si>
   <si>
-    <t>build_spell_factory</t>
+    <t>building/build_spell_factory_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10013]</t>
   </si>
   <si>
     <t>箭塔</t>
   </si>
   <si>
-    <t>build_tower_turret</t>
+    <t>building/build_tower_turret_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10014]</t>
   </si>
   <si>
     <t>主城</t>
   </si>
   <si>
-    <t>build_town_hall</t>
+    <t>building/build_town_hall_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10015]</t>
   </si>
   <si>
     <t>建筑工人小屋</t>
   </si>
   <si>
-    <t>build_worker_building</t>
+    <t>building/build_worker_building_lvl1_hd</t>
+  </si>
+  <si>
+    <t>[10016]</t>
   </si>
   <si>
     <t>金币</t>
@@ -215,10 +269,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -243,7 +297,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,16 +311,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,38 +379,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -341,6 +403,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,36 +434,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -417,169 +471,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,6 +711,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -677,26 +746,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,9 +770,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,145 +784,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1273,18 +1327,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="21.5454545454545" customWidth="1"/>
     <col min="3" max="3" width="16.3636363636364" customWidth="1"/>
     <col min="4" max="4" width="36.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1335,7 +1390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1348,22 +1403,28 @@
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -1371,13 +1432,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -1385,13 +1449,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -1399,13 +1466,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -1413,13 +1483,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -1427,13 +1500,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>10006</v>
       </c>
@@ -1441,13 +1517,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>10007</v>
       </c>
@@ -1455,13 +1534,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>10008</v>
       </c>
@@ -1469,13 +1551,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>10009</v>
       </c>
@@ -1483,13 +1568,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>10010</v>
       </c>
@@ -1497,13 +1585,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>10011</v>
       </c>
@@ -1511,13 +1602,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>10012</v>
       </c>
@@ -1525,13 +1619,16 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>10013</v>
       </c>
@@ -1539,13 +1636,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>10014</v>
       </c>
@@ -1553,13 +1653,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>10015</v>
       </c>
@@ -1567,13 +1670,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>10016</v>
       </c>
@@ -1581,43 +1687,46 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>20001</v>
+        <v>50001</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:3">
       <c r="A29">
-        <v>20002</v>
+        <v>50002</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:3">
       <c r="A30">
-        <v>20003</v>
+        <v>50003</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
